--- a/reporte_estadistico/data/gas/metricsCategorias/metrics_21/cat5/metrics_data_vcon.xlsx
+++ b/reporte_estadistico/data/gas/metricsCategorias/metrics_21/cat5/metrics_data_vcon.xlsx
@@ -1,21 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\JJ\repos\research_eslatina\reporte_estadistico\data\gas\metricsCategorias\metrics_21\cat5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="236" yWindow="13" windowWidth="16089" windowHeight="9661"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>quant0</t>
+  </si>
+  <si>
+    <t>quant25</t>
+  </si>
+  <si>
+    <t>quant50</t>
+  </si>
+  <si>
+    <t>quant75</t>
+  </si>
+  <si>
+    <t>quant100</t>
+  </si>
+  <si>
+    <t>skewness</t>
+  </si>
+  <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>std_dev</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Estrato1_vcon</t>
+  </si>
+  <si>
+    <t>Estrato2_vcon</t>
+  </si>
+  <si>
+    <t>Estrato3_vcon</t>
+  </si>
+  <si>
+    <t>Estrato4_vcon</t>
+  </si>
+  <si>
+    <t>Estrato5_vcon</t>
+  </si>
+  <si>
+    <t>Estrato6_vcon</t>
+  </si>
+  <si>
+    <t>totResidencial_vcon</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +130,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +216,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +251,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,135 +427,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>quant0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>quant25</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>quant50</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>quant75</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>quant100</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>skewness</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>std_dev</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>variance</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Estrato1_vcon</t>
-        </is>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>20.6739741</v>
+        <v>20.673974099999999</v>
       </c>
       <c r="C2">
-        <v>782.4060065</v>
+        <v>782.40600649999999</v>
       </c>
       <c r="D2">
-        <v>1691.73413788</v>
+        <v>1691.7341378799999</v>
       </c>
       <c r="E2">
-        <v>3688.338194</v>
+        <v>3688.3381939999999</v>
       </c>
       <c r="F2">
-        <v>74404.585895</v>
+        <v>74404.585894999997</v>
       </c>
       <c r="G2">
         <v>1.655793501737838</v>
       </c>
       <c r="H2">
-        <v>5.160954360102926</v>
+        <v>5.1609543601029264</v>
       </c>
       <c r="I2">
-        <v>1691.73413788</v>
+        <v>1691.7341378799999</v>
       </c>
       <c r="J2">
-        <v>8827.641483982428</v>
+        <v>8827.6414839824283</v>
       </c>
       <c r="K2">
-        <v>77927254.1697275</v>
+        <v>77927254.169727504</v>
       </c>
       <c r="L2">
-        <v>4379.165368107417</v>
+        <v>4379.1653681074167</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Estrato2_vcon</t>
-        </is>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>152.26509069</v>
+        <v>152.26509068999999</v>
       </c>
       <c r="C3">
-        <v>1449.088333955</v>
+        <v>1449.0883339550001</v>
       </c>
       <c r="D3">
-        <v>2346.83021701</v>
+        <v>2346.8302170100001</v>
       </c>
       <c r="E3">
-        <v>4786.4138279</v>
+        <v>4786.4138278999999</v>
       </c>
       <c r="F3">
-        <v>289412.87229</v>
+        <v>289412.87229000003</v>
       </c>
       <c r="G3">
         <v>1.395645577189444</v>
@@ -487,103 +536,97 @@
         <v>4.229920319768695</v>
       </c>
       <c r="I3">
-        <v>2346.83021701</v>
+        <v>2346.8302170100001</v>
       </c>
       <c r="J3">
-        <v>24918.10128243757</v>
+        <v>24918.101282437568</v>
       </c>
       <c r="K3">
-        <v>620911771.521817</v>
+        <v>620911771.52181697</v>
       </c>
       <c r="L3">
-        <v>7321.141032698941</v>
+        <v>7321.1410326989408</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Estrato3_vcon</t>
-        </is>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>354.4568705</v>
+        <v>354.45687049999998</v>
       </c>
       <c r="D4">
-        <v>906.62692759</v>
+        <v>906.62692759000004</v>
       </c>
       <c r="E4">
-        <v>2854.24994142</v>
+        <v>2854.2499414200001</v>
       </c>
       <c r="F4">
-        <v>214314.850478</v>
+        <v>214314.85047800001</v>
       </c>
       <c r="G4">
         <v>1.685610165713971</v>
       </c>
       <c r="H4">
-        <v>5.163078731481934</v>
+        <v>5.1630787314819342</v>
       </c>
       <c r="I4">
-        <v>906.62692759</v>
+        <v>906.62692759000004</v>
       </c>
       <c r="J4">
-        <v>18451.54039488075</v>
+        <v>18451.540394880751</v>
       </c>
       <c r="K4">
-        <v>340459342.9439161</v>
+        <v>340459342.94391608</v>
       </c>
       <c r="L4">
-        <v>4419.92831313351</v>
+        <v>4419.9283131335096</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Estrato4_vcon</t>
-        </is>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.579684</v>
+        <v>5.5796840000000003</v>
       </c>
       <c r="D5">
-        <v>75.97166466</v>
+        <v>75.971664660000002</v>
       </c>
       <c r="E5">
-        <v>857.302583</v>
+        <v>857.30258300000003</v>
       </c>
       <c r="F5">
-        <v>96653.25241099999</v>
+        <v>96653.252410999994</v>
       </c>
       <c r="G5">
         <v>2.042612802900349</v>
       </c>
       <c r="H5">
-        <v>6.485111279211769</v>
+        <v>6.4851112792117691</v>
       </c>
       <c r="I5">
-        <v>75.97166466</v>
+        <v>75.971664660000002</v>
       </c>
       <c r="J5">
         <v>8252.094323111447</v>
       </c>
       <c r="K5">
-        <v>68097060.71752818</v>
+        <v>68097060.717528179</v>
       </c>
       <c r="L5">
-        <v>1718.125041218609</v>
+        <v>1718.1250412186091</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Estrato5_vcon</t>
-        </is>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -592,22 +635,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.58554796</v>
+        <v>0.58554795999999998</v>
       </c>
       <c r="E6">
         <v>100.8423375</v>
       </c>
       <c r="F6">
-        <v>39544.444305</v>
+        <v>39544.444304999997</v>
       </c>
       <c r="G6">
-        <v>3.139221800365721</v>
+        <v>3.1392218003657208</v>
       </c>
       <c r="H6">
         <v>12.68586483372817</v>
       </c>
       <c r="I6">
-        <v>0.58554796</v>
+        <v>0.58554795999999998</v>
       </c>
       <c r="J6">
         <v>3762.387641498693</v>
@@ -616,14 +659,12 @@
         <v>14155560.7649021</v>
       </c>
       <c r="L6">
-        <v>754.85560815649</v>
+        <v>754.85560815649001</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Estrato6_vcon</t>
-        </is>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -635,16 +676,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.618132435</v>
+        <v>6.6181324349999997</v>
       </c>
       <c r="F7">
-        <v>45542.538789</v>
+        <v>45542.538788999998</v>
       </c>
       <c r="G7">
-        <v>3.595320844176585</v>
+        <v>3.5953208441765852</v>
       </c>
       <c r="H7">
-        <v>15.00485475053778</v>
+        <v>15.004854750537779</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -656,44 +697,42 @@
         <v>16512493.34573241</v>
       </c>
       <c r="L7">
-        <v>678.5148018577484</v>
+        <v>678.51480185774835</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>totResidencial_vcon</t>
-        </is>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>812.9976820000001</v>
+        <v>812.99768200000005</v>
       </c>
       <c r="C8">
-        <v>3277.2793205</v>
+        <v>3277.2793204999998</v>
       </c>
       <c r="D8">
-        <v>5743.238664</v>
+        <v>5743.2386640000004</v>
       </c>
       <c r="E8">
-        <v>12000.26653034</v>
+        <v>12000.266530340001</v>
       </c>
       <c r="F8">
-        <v>759872.544168</v>
+        <v>759872.54416799999</v>
       </c>
       <c r="G8">
-        <v>2.023114141518531</v>
+        <v>2.0231141415185312</v>
       </c>
       <c r="H8">
-        <v>6.906081833626399</v>
+        <v>6.9060818336263994</v>
       </c>
       <c r="I8">
-        <v>5743.238664</v>
+        <v>5743.2386640000004</v>
       </c>
       <c r="J8">
-        <v>66259.01578691482</v>
+        <v>66259.015786914824</v>
       </c>
       <c r="K8">
-        <v>4390257173.050629</v>
+        <v>4390257173.0506287</v>
       </c>
       <c r="L8">
         <v>19271.73016517271</v>
